--- a/Tabla.xlsx
+++ b/Tabla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wmigu\Documents\EIA\LENGUAJES Y COMPILADORES\Taller 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wmigu\Documents\EIA\LENGUAJES Y COMPILADORES\Taller3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F928C9E4-B195-4F66-A7A8-B1E15EBFB192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270BC0EC-84C0-4588-95D2-0E162EAD7710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{43532C55-75F1-4435-8B99-FF0D78DB035A}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14400" windowHeight="7360" xr2:uid="{43532C55-75F1-4435-8B99-FF0D78DB035A}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla de simbolos" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>and</t>
   </si>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D5CB0B-88C3-482D-B143-9B98BDD98C9D}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,9 +773,6 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -807,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -821,10 +818,13 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -838,6 +838,9 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
         <v>44</v>
       </c>
     </row>
